--- a/WBS Milestone1_Group59.xlsx
+++ b/WBS Milestone1_Group59.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://griffitheduau-my.sharepoint.com/personal/juan_martinez_griffithuni_edu_au/Documents/Griffith/Software Technologies/Milestone1_Group59/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{B8CEA532-24A1-0048-8E81-5BFCA64FA7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B665B905-92FE-D147-A1E6-D56F50ED9CA6}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{B8CEA532-24A1-0048-8E81-5BFCA64FA7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB7AFF6B-0C73-7B44-881B-E92C7A2CA586}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-1960" windowWidth="38400" windowHeight="21600" xr2:uid="{92548241-9716-9B40-9B3C-AD7A61959B9C}"/>
+    <workbookView xWindow="35000" yWindow="560" windowWidth="33600" windowHeight="18980" xr2:uid="{92548241-9716-9B40-9B3C-AD7A61959B9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1791,7 +1791,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-GB"/>
-            <a:t>4.2.5 Additional Features</a:t>
+            <a:t>4.2.5 Weight  Calculation Feature </a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -4119,8 +4119,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="12990649" y="1190607"/>
-          <a:ext cx="147404" cy="2545192"/>
+          <a:off x="13272955" y="1268635"/>
+          <a:ext cx="157218" cy="2714641"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4134,10 +4134,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="2545192"/>
+                <a:pt x="0" y="2714641"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="147404" y="2545192"/>
+                <a:pt x="157218" y="2714641"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4178,8 +4178,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="12990649" y="1190607"/>
-          <a:ext cx="147404" cy="1847475"/>
+          <a:off x="13272955" y="1268635"/>
+          <a:ext cx="157218" cy="1970473"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4193,10 +4193,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1847475"/>
+                <a:pt x="0" y="1970473"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="147404" y="1847475"/>
+                <a:pt x="157218" y="1970473"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4237,8 +4237,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="12990649" y="1190607"/>
-          <a:ext cx="147404" cy="1149758"/>
+          <a:off x="13272955" y="1268635"/>
+          <a:ext cx="157218" cy="1226305"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4252,10 +4252,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1149758"/>
+                <a:pt x="0" y="1226305"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="147404" y="1149758"/>
+                <a:pt x="157218" y="1226305"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4296,8 +4296,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="12990649" y="1190607"/>
-          <a:ext cx="147404" cy="452041"/>
+          <a:off x="13272955" y="1268635"/>
+          <a:ext cx="157218" cy="482137"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4311,10 +4311,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="452041"/>
+                <a:pt x="0" y="482137"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="147404" y="452041"/>
+                <a:pt x="157218" y="482137"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4355,8 +4355,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8627462" y="492891"/>
-          <a:ext cx="4756266" cy="206366"/>
+          <a:off x="8619284" y="524467"/>
+          <a:ext cx="5072920" cy="220106"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4370,13 +4370,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="103183"/>
+                <a:pt x="0" y="110053"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="4756266" y="103183"/>
+                <a:pt x="5072920" y="110053"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="4756266" y="206366"/>
+                <a:pt x="5072920" y="220106"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4417,8 +4417,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11801582" y="1190607"/>
-          <a:ext cx="147404" cy="3940625"/>
+          <a:off x="12004725" y="1268635"/>
+          <a:ext cx="157218" cy="4202977"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4432,10 +4432,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="3940625"/>
+                <a:pt x="0" y="4202977"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="147404" y="3940625"/>
+                <a:pt x="157218" y="4202977"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4476,8 +4476,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11801582" y="1190607"/>
-          <a:ext cx="147404" cy="3242909"/>
+          <a:off x="12004725" y="1268635"/>
+          <a:ext cx="157218" cy="3458809"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4491,10 +4491,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="3242909"/>
+                <a:pt x="0" y="3458809"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="147404" y="3242909"/>
+                <a:pt x="157218" y="3458809"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4535,8 +4535,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11801582" y="1190607"/>
-          <a:ext cx="147404" cy="2545192"/>
+          <a:off x="12004725" y="1268635"/>
+          <a:ext cx="157218" cy="2714641"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4550,10 +4550,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="2545192"/>
+                <a:pt x="0" y="2714641"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="147404" y="2545192"/>
+                <a:pt x="157218" y="2714641"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4594,8 +4594,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11801582" y="1190607"/>
-          <a:ext cx="147404" cy="1847475"/>
+          <a:off x="12004725" y="1268635"/>
+          <a:ext cx="157218" cy="1970473"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4609,10 +4609,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1847475"/>
+                <a:pt x="0" y="1970473"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="147404" y="1847475"/>
+                <a:pt x="157218" y="1970473"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4653,8 +4653,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11801582" y="1190607"/>
-          <a:ext cx="147404" cy="1149758"/>
+          <a:off x="12004725" y="1268635"/>
+          <a:ext cx="157218" cy="1226305"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4668,10 +4668,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1149758"/>
+                <a:pt x="0" y="1226305"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="147404" y="1149758"/>
+                <a:pt x="157218" y="1226305"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4712,8 +4712,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11801582" y="1190607"/>
-          <a:ext cx="147404" cy="452041"/>
+          <a:off x="12004725" y="1268635"/>
+          <a:ext cx="157218" cy="482137"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4727,10 +4727,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="452041"/>
+                <a:pt x="0" y="482137"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="147404" y="452041"/>
+                <a:pt x="157218" y="482137"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4771,8 +4771,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8627462" y="492891"/>
-          <a:ext cx="3567199" cy="206366"/>
+          <a:off x="8619284" y="524467"/>
+          <a:ext cx="3804690" cy="220106"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4786,13 +4786,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="103183"/>
+                <a:pt x="0" y="110053"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="3567199" y="103183"/>
+                <a:pt x="3804690" y="110053"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="3567199" y="206366"/>
+                <a:pt x="3804690" y="220106"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4833,8 +4833,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9467670" y="1190607"/>
-          <a:ext cx="1783599" cy="206366"/>
+          <a:off x="9515430" y="1268635"/>
+          <a:ext cx="1902345" cy="220106"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4848,13 +4848,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="103183"/>
+                <a:pt x="0" y="110053"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="1783599" y="103183"/>
+                <a:pt x="1902345" y="110053"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="1783599" y="206366"/>
+                <a:pt x="1902345" y="220106"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4895,8 +4895,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9467670" y="1190607"/>
-          <a:ext cx="594533" cy="206366"/>
+          <a:off x="9515430" y="1268635"/>
+          <a:ext cx="634115" cy="220106"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4910,13 +4910,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="103183"/>
+                <a:pt x="0" y="110053"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="594533" y="103183"/>
+                <a:pt x="634115" y="110053"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="594533" y="206366"/>
+                <a:pt x="634115" y="220106"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4957,8 +4957,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8480057" y="1888324"/>
-          <a:ext cx="147404" cy="3242909"/>
+          <a:off x="8462065" y="2012803"/>
+          <a:ext cx="157218" cy="3458809"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4972,10 +4972,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="3242909"/>
+                <a:pt x="0" y="3458809"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="147404" y="3242909"/>
+                <a:pt x="157218" y="3458809"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5016,8 +5016,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8480057" y="1888324"/>
-          <a:ext cx="147404" cy="2545192"/>
+          <a:off x="8462065" y="2012803"/>
+          <a:ext cx="157218" cy="2714641"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5031,10 +5031,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="2545192"/>
+                <a:pt x="0" y="2714641"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="147404" y="2545192"/>
+                <a:pt x="157218" y="2714641"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5075,8 +5075,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8480057" y="1888324"/>
-          <a:ext cx="147404" cy="1847475"/>
+          <a:off x="8462065" y="2012803"/>
+          <a:ext cx="157218" cy="1970473"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5090,10 +5090,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1847475"/>
+                <a:pt x="0" y="1970473"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="147404" y="1847475"/>
+                <a:pt x="157218" y="1970473"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5134,8 +5134,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8480057" y="1888324"/>
-          <a:ext cx="147404" cy="1149758"/>
+          <a:off x="8462065" y="2012803"/>
+          <a:ext cx="157218" cy="1226305"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5149,10 +5149,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1149758"/>
+                <a:pt x="0" y="1226305"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="147404" y="1149758"/>
+                <a:pt x="157218" y="1226305"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5193,8 +5193,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8480057" y="1888324"/>
-          <a:ext cx="147404" cy="452041"/>
+          <a:off x="8462065" y="2012803"/>
+          <a:ext cx="157218" cy="482137"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5208,10 +5208,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="452041"/>
+                <a:pt x="0" y="482137"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="147404" y="452041"/>
+                <a:pt x="157218" y="482137"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5252,8 +5252,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8873137" y="1190607"/>
-          <a:ext cx="594533" cy="206366"/>
+          <a:off x="8881315" y="1268635"/>
+          <a:ext cx="634115" cy="220106"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5264,16 +5264,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="594533" y="0"/>
+                <a:pt x="634115" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="594533" y="103183"/>
+                <a:pt x="634115" y="110053"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="103183"/>
+                <a:pt x="0" y="110053"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="206366"/>
+                <a:pt x="0" y="220106"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5314,8 +5314,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7684070" y="1190607"/>
-          <a:ext cx="1783599" cy="206366"/>
+          <a:off x="7613085" y="1268635"/>
+          <a:ext cx="1902345" cy="220106"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5326,16 +5326,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="1783599" y="0"/>
+                <a:pt x="1902345" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1783599" y="103183"/>
+                <a:pt x="1902345" y="110053"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="103183"/>
+                <a:pt x="0" y="110053"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="206366"/>
+                <a:pt x="0" y="220106"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5376,8 +5376,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8627462" y="492891"/>
-          <a:ext cx="840208" cy="206366"/>
+          <a:off x="8619284" y="524467"/>
+          <a:ext cx="896146" cy="220106"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5391,13 +5391,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="103183"/>
+                <a:pt x="0" y="110053"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="840208" y="103183"/>
+                <a:pt x="896146" y="110053"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="840208" y="206366"/>
+                <a:pt x="896146" y="220106"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5438,8 +5438,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5856249" y="1190607"/>
-          <a:ext cx="147404" cy="3940625"/>
+          <a:off x="5663574" y="1268635"/>
+          <a:ext cx="157218" cy="4202977"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5453,10 +5453,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="3940625"/>
+                <a:pt x="0" y="4202977"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="147404" y="3940625"/>
+                <a:pt x="157218" y="4202977"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5497,8 +5497,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5856249" y="1190607"/>
-          <a:ext cx="147404" cy="3242909"/>
+          <a:off x="5663574" y="1268635"/>
+          <a:ext cx="157218" cy="3458809"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5512,10 +5512,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="3242909"/>
+                <a:pt x="0" y="3458809"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="147404" y="3242909"/>
+                <a:pt x="157218" y="3458809"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5556,8 +5556,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5856249" y="1190607"/>
-          <a:ext cx="147404" cy="2545192"/>
+          <a:off x="5663574" y="1268635"/>
+          <a:ext cx="157218" cy="2714641"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5571,10 +5571,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="2545192"/>
+                <a:pt x="0" y="2714641"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="147404" y="2545192"/>
+                <a:pt x="157218" y="2714641"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5615,8 +5615,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5856249" y="1190607"/>
-          <a:ext cx="147404" cy="1847475"/>
+          <a:off x="5663574" y="1268635"/>
+          <a:ext cx="157218" cy="1970473"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5630,10 +5630,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1847475"/>
+                <a:pt x="0" y="1970473"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="147404" y="1847475"/>
+                <a:pt x="157218" y="1970473"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5674,8 +5674,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5856249" y="1190607"/>
-          <a:ext cx="147404" cy="1149758"/>
+          <a:off x="5663574" y="1268635"/>
+          <a:ext cx="157218" cy="1226305"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5689,10 +5689,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1149758"/>
+                <a:pt x="0" y="1226305"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="147404" y="1149758"/>
+                <a:pt x="157218" y="1226305"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5733,8 +5733,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5856249" y="1190607"/>
-          <a:ext cx="147404" cy="452041"/>
+          <a:off x="5663574" y="1268635"/>
+          <a:ext cx="157218" cy="482137"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5748,10 +5748,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="452041"/>
+                <a:pt x="0" y="482137"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="147404" y="452041"/>
+                <a:pt x="157218" y="482137"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5792,8 +5792,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6249329" y="492891"/>
-          <a:ext cx="2378133" cy="206366"/>
+          <a:off x="6082824" y="524467"/>
+          <a:ext cx="2536460" cy="220106"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5804,16 +5804,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="2378133" y="0"/>
+                <a:pt x="2536460" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="2378133" y="103183"/>
+                <a:pt x="2536460" y="110053"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="103183"/>
+                <a:pt x="0" y="110053"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="206366"/>
+                <a:pt x="0" y="220106"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5854,8 +5854,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4667182" y="1190607"/>
-          <a:ext cx="147404" cy="1847475"/>
+          <a:off x="4395344" y="1268635"/>
+          <a:ext cx="157218" cy="1970473"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5869,10 +5869,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1847475"/>
+                <a:pt x="0" y="1970473"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="147404" y="1847475"/>
+                <a:pt x="157218" y="1970473"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5913,8 +5913,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4667182" y="1190607"/>
-          <a:ext cx="147404" cy="1149758"/>
+          <a:off x="4395344" y="1268635"/>
+          <a:ext cx="157218" cy="1226305"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5928,10 +5928,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1149758"/>
+                <a:pt x="0" y="1226305"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="147404" y="1149758"/>
+                <a:pt x="157218" y="1226305"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5972,8 +5972,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4667182" y="1190607"/>
-          <a:ext cx="147404" cy="452041"/>
+          <a:off x="4395344" y="1268635"/>
+          <a:ext cx="157218" cy="482137"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5987,10 +5987,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="452041"/>
+                <a:pt x="0" y="482137"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="147404" y="452041"/>
+                <a:pt x="157218" y="482137"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6031,8 +6031,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5060262" y="492891"/>
-          <a:ext cx="3567199" cy="206366"/>
+          <a:off x="4814594" y="524467"/>
+          <a:ext cx="3804690" cy="220106"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6043,16 +6043,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="3567199" y="0"/>
+                <a:pt x="3804690" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="3567199" y="103183"/>
+                <a:pt x="3804690" y="110053"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="103183"/>
+                <a:pt x="0" y="110053"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="206366"/>
+                <a:pt x="0" y="220106"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6093,8 +6093,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3478116" y="1190607"/>
-          <a:ext cx="147404" cy="2545192"/>
+          <a:off x="3127114" y="1268635"/>
+          <a:ext cx="157218" cy="2714641"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6108,10 +6108,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="2545192"/>
+                <a:pt x="0" y="2714641"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="147404" y="2545192"/>
+                <a:pt x="157218" y="2714641"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6152,8 +6152,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3478116" y="1190607"/>
-          <a:ext cx="147404" cy="1847475"/>
+          <a:off x="3127114" y="1268635"/>
+          <a:ext cx="157218" cy="1970473"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6167,10 +6167,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1847475"/>
+                <a:pt x="0" y="1970473"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="147404" y="1847475"/>
+                <a:pt x="157218" y="1970473"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6211,8 +6211,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3478116" y="1190607"/>
-          <a:ext cx="147404" cy="1149758"/>
+          <a:off x="3127114" y="1268635"/>
+          <a:ext cx="157218" cy="1226305"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6226,10 +6226,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1149758"/>
+                <a:pt x="0" y="1226305"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="147404" y="1149758"/>
+                <a:pt x="157218" y="1226305"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6270,8 +6270,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3478116" y="1190607"/>
-          <a:ext cx="147404" cy="452041"/>
+          <a:off x="3127114" y="1268635"/>
+          <a:ext cx="157218" cy="482137"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6285,10 +6285,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="452041"/>
+                <a:pt x="0" y="482137"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="147404" y="452041"/>
+                <a:pt x="157218" y="482137"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6329,8 +6329,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3871195" y="492891"/>
-          <a:ext cx="4756266" cy="206366"/>
+          <a:off x="3546364" y="524467"/>
+          <a:ext cx="5072920" cy="220106"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6341,16 +6341,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="4756266" y="0"/>
+                <a:pt x="5072920" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="4756266" y="103183"/>
+                <a:pt x="5072920" y="110053"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="103183"/>
+                <a:pt x="0" y="110053"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="206366"/>
+                <a:pt x="0" y="220106"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6391,8 +6391,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8136112" y="1541"/>
-          <a:ext cx="982699" cy="491349"/>
+          <a:off x="8095222" y="405"/>
+          <a:ext cx="1048124" cy="524062"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6434,12 +6434,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6452,14 +6452,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100" kern="1200"/>
+            <a:rPr lang="en-GB" sz="1200" kern="1200"/>
             <a:t>Nutional Food System Project</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8136112" y="1541"/>
-        <a:ext cx="982699" cy="491349"/>
+        <a:off x="8095222" y="405"/>
+        <a:ext cx="1048124" cy="524062"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{949F44F6-8ABC-BA4A-BEAB-1AEB2FE6DE60}">
@@ -6469,8 +6469,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3379846" y="699258"/>
-          <a:ext cx="982699" cy="491349"/>
+          <a:off x="3022302" y="744573"/>
+          <a:ext cx="1048124" cy="524062"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6512,12 +6512,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6530,14 +6530,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100" kern="1200"/>
+            <a:rPr lang="en-GB" sz="1200" kern="1200"/>
             <a:t>1.0 Initiating</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3379846" y="699258"/>
-        <a:ext cx="982699" cy="491349"/>
+        <a:off x="3022302" y="744573"/>
+        <a:ext cx="1048124" cy="524062"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{1BA012E1-064A-2640-B939-40E0B476F10F}">
@@ -6547,8 +6547,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3625521" y="1396974"/>
-          <a:ext cx="982699" cy="491349"/>
+          <a:off x="3284333" y="1488741"/>
+          <a:ext cx="1048124" cy="524062"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6590,12 +6590,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6608,14 +6608,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100" kern="1200"/>
+            <a:rPr lang="en-GB" sz="1200" kern="1200"/>
             <a:t>1.1 Roles Assignation</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3625521" y="1396974"/>
-        <a:ext cx="982699" cy="491349"/>
+        <a:off x="3284333" y="1488741"/>
+        <a:ext cx="1048124" cy="524062"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{A5808269-24B4-4F40-9389-7E9BA00D50DF}">
@@ -6625,8 +6625,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3625521" y="2094691"/>
-          <a:ext cx="982699" cy="491349"/>
+          <a:off x="3284333" y="2232909"/>
+          <a:ext cx="1048124" cy="524062"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6668,12 +6668,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6686,14 +6686,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100" kern="1200"/>
+            <a:rPr lang="en-GB" sz="1200" kern="1200"/>
             <a:t>1.2 Project Objective Definition</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3625521" y="2094691"/>
-        <a:ext cx="982699" cy="491349"/>
+        <a:off x="3284333" y="2232909"/>
+        <a:ext cx="1048124" cy="524062"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{0AFF2DA3-F4A6-2F43-BBC9-CE2A39D4669C}">
@@ -6703,8 +6703,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3625521" y="2792408"/>
-          <a:ext cx="982699" cy="491349"/>
+          <a:off x="3284333" y="2977078"/>
+          <a:ext cx="1048124" cy="524062"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6746,12 +6746,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6764,14 +6764,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100" kern="1200"/>
+            <a:rPr lang="en-GB" sz="1200" kern="1200"/>
             <a:t>1.3 Stakeholders Identification</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3625521" y="2792408"/>
-        <a:ext cx="982699" cy="491349"/>
+        <a:off x="3284333" y="2977078"/>
+        <a:ext cx="1048124" cy="524062"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{E34E0977-23E7-0146-A484-B1A5923DBA44}">
@@ -6781,8 +6781,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3625521" y="3490125"/>
-          <a:ext cx="982699" cy="491349"/>
+          <a:off x="3284333" y="3721246"/>
+          <a:ext cx="1048124" cy="524062"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6824,12 +6824,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6842,14 +6842,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100" kern="1200"/>
+            <a:rPr lang="en-GB" sz="1200" kern="1200"/>
             <a:t>1.4 Project Scope Definition</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3625521" y="3490125"/>
-        <a:ext cx="982699" cy="491349"/>
+        <a:off x="3284333" y="3721246"/>
+        <a:ext cx="1048124" cy="524062"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{424F7520-A386-1A44-9013-98E69B6322D2}">
@@ -6859,8 +6859,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4568912" y="699258"/>
-          <a:ext cx="982699" cy="491349"/>
+          <a:off x="4290532" y="744573"/>
+          <a:ext cx="1048124" cy="524062"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6902,12 +6902,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6920,14 +6920,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100" kern="1200"/>
+            <a:rPr lang="en-GB" sz="1200" kern="1200"/>
             <a:t>2.0 Project Management Plan</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4568912" y="699258"/>
-        <a:ext cx="982699" cy="491349"/>
+        <a:off x="4290532" y="744573"/>
+        <a:ext cx="1048124" cy="524062"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{6DE63FC2-8D51-1747-B6CA-FF474AB46C27}">
@@ -6937,8 +6937,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4814587" y="1396974"/>
-          <a:ext cx="982699" cy="491349"/>
+          <a:off x="4552563" y="1488741"/>
+          <a:ext cx="1048124" cy="524062"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6980,12 +6980,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6998,14 +6998,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100" kern="1200"/>
+            <a:rPr lang="en-GB" sz="1200" kern="1200"/>
             <a:t>2.1  Work Breakdown Structure Design</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4814587" y="1396974"/>
-        <a:ext cx="982699" cy="491349"/>
+        <a:off x="4552563" y="1488741"/>
+        <a:ext cx="1048124" cy="524062"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{3A64E7D0-FFBC-604C-9368-CE523591ABAD}">
@@ -7015,8 +7015,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4814587" y="2094691"/>
-          <a:ext cx="982699" cy="491349"/>
+          <a:off x="4552563" y="2232909"/>
+          <a:ext cx="1048124" cy="524062"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7058,12 +7058,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7076,14 +7076,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100" kern="1200"/>
+            <a:rPr lang="en-GB" sz="1200" kern="1200"/>
             <a:t>2.2 Activities Definition</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4814587" y="2094691"/>
-        <a:ext cx="982699" cy="491349"/>
+        <a:off x="4552563" y="2232909"/>
+        <a:ext cx="1048124" cy="524062"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C464EFFF-D1F1-D641-BA9E-225D481FC6DB}">
@@ -7093,8 +7093,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4814587" y="2792408"/>
-          <a:ext cx="982699" cy="491349"/>
+          <a:off x="4552563" y="2977078"/>
+          <a:ext cx="1048124" cy="524062"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7136,12 +7136,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7154,14 +7154,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100" kern="1200"/>
+            <a:rPr lang="en-GB" sz="1200" kern="1200"/>
             <a:t>2.3 Gantt Chart Creation</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4814587" y="2792408"/>
-        <a:ext cx="982699" cy="491349"/>
+        <a:off x="4552563" y="2977078"/>
+        <a:ext cx="1048124" cy="524062"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{20C62CC8-33F5-4341-8434-C7A26FA44D13}">
@@ -7171,8 +7171,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5757979" y="699258"/>
-          <a:ext cx="982699" cy="491349"/>
+          <a:off x="5558762" y="744573"/>
+          <a:ext cx="1048124" cy="524062"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7214,12 +7214,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7232,14 +7232,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100" kern="1200"/>
+            <a:rPr lang="en-GB" sz="1200" kern="1200"/>
             <a:t>3.0 Software Design</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5757979" y="699258"/>
-        <a:ext cx="982699" cy="491349"/>
+        <a:off x="5558762" y="744573"/>
+        <a:ext cx="1048124" cy="524062"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{EC893EDE-AABE-564F-BF49-1F1E39400C29}">
@@ -7249,8 +7249,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6003654" y="1396974"/>
-          <a:ext cx="982699" cy="491349"/>
+          <a:off x="5820793" y="1488741"/>
+          <a:ext cx="1048124" cy="524062"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7292,12 +7292,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7310,14 +7310,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100" kern="1200"/>
+            <a:rPr lang="en-GB" sz="1200" kern="1200"/>
             <a:t>3.1 System Vision Definition</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6003654" y="1396974"/>
-        <a:ext cx="982699" cy="491349"/>
+        <a:off x="5820793" y="1488741"/>
+        <a:ext cx="1048124" cy="524062"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{E68F497A-F0B5-9D4D-B380-2FB016805ACB}">
@@ -7327,8 +7327,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6003654" y="2094691"/>
-          <a:ext cx="982699" cy="491349"/>
+          <a:off x="5820793" y="2232909"/>
+          <a:ext cx="1048124" cy="524062"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7370,12 +7370,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7388,14 +7388,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100" kern="1200"/>
+            <a:rPr lang="en-GB" sz="1200" kern="1200"/>
             <a:t>3.2 Software and User Requirements</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6003654" y="2094691"/>
-        <a:ext cx="982699" cy="491349"/>
+        <a:off x="5820793" y="2232909"/>
+        <a:ext cx="1048124" cy="524062"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{86F30CD7-4EA9-BE4D-93EB-8BBB931BCBF8}">
@@ -7405,8 +7405,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6003654" y="2792408"/>
-          <a:ext cx="982699" cy="491349"/>
+          <a:off x="5820793" y="2977078"/>
+          <a:ext cx="1048124" cy="524062"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7448,12 +7448,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7466,14 +7466,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100" kern="1200"/>
+            <a:rPr lang="en-GB" sz="1200" kern="1200"/>
             <a:t>3.3 Use Cases Analysis and Design</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6003654" y="2792408"/>
-        <a:ext cx="982699" cy="491349"/>
+        <a:off x="5820793" y="2977078"/>
+        <a:ext cx="1048124" cy="524062"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{CAD86309-9F8E-B441-B7ED-A79343157307}">
@@ -7483,8 +7483,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6003654" y="3490125"/>
-          <a:ext cx="982699" cy="491349"/>
+          <a:off x="5820793" y="3721246"/>
+          <a:ext cx="1048124" cy="524062"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7526,12 +7526,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7544,14 +7544,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100" kern="1200"/>
+            <a:rPr lang="en-GB" sz="1200" kern="1200"/>
             <a:t>3.4 Software Design</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6003654" y="3490125"/>
-        <a:ext cx="982699" cy="491349"/>
+        <a:off x="5820793" y="3721246"/>
+        <a:ext cx="1048124" cy="524062"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{3B38E598-C394-7C4B-B972-83848E260C92}">
@@ -7561,8 +7561,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6003654" y="4187842"/>
-          <a:ext cx="982699" cy="491349"/>
+          <a:off x="5820793" y="4465414"/>
+          <a:ext cx="1048124" cy="524062"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7604,12 +7604,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7622,14 +7622,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100" kern="1200"/>
+            <a:rPr lang="en-GB" sz="1200" kern="1200"/>
             <a:t>3.5 User Hierarchy Chart Creation</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6003654" y="4187842"/>
-        <a:ext cx="982699" cy="491349"/>
+        <a:off x="5820793" y="4465414"/>
+        <a:ext cx="1048124" cy="524062"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{80B543F2-6065-3046-B7DF-C22EF25047E1}">
@@ -7639,8 +7639,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6003654" y="4885558"/>
-          <a:ext cx="982699" cy="491349"/>
+          <a:off x="5820793" y="5209582"/>
+          <a:ext cx="1048124" cy="524062"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7682,12 +7682,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7700,14 +7700,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100" kern="1200"/>
+            <a:rPr lang="en-GB" sz="1200" kern="1200"/>
             <a:t>3.6 Wireframes and Mock-ups Design</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6003654" y="4885558"/>
-        <a:ext cx="982699" cy="491349"/>
+        <a:off x="5820793" y="5209582"/>
+        <a:ext cx="1048124" cy="524062"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{E20F8380-C66F-3647-B4DF-6F34CBD4F887}">
@@ -7717,8 +7717,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8976320" y="699258"/>
-          <a:ext cx="982699" cy="491349"/>
+          <a:off x="8991368" y="744573"/>
+          <a:ext cx="1048124" cy="524062"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7760,12 +7760,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7778,14 +7778,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100" kern="1200"/>
+            <a:rPr lang="en-GB" sz="1200" kern="1200"/>
             <a:t>4.0 Executing</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8976320" y="699258"/>
-        <a:ext cx="982699" cy="491349"/>
+        <a:off x="8991368" y="744573"/>
+        <a:ext cx="1048124" cy="524062"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{F3372EAF-07F0-E145-85B0-3C55F90AF87A}">
@@ -7795,8 +7795,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7192720" y="1396974"/>
-          <a:ext cx="982699" cy="491349"/>
+          <a:off x="7089023" y="1488741"/>
+          <a:ext cx="1048124" cy="524062"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7838,12 +7838,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7856,14 +7856,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100" kern="1200"/>
+            <a:rPr lang="en-GB" sz="1200" kern="1200"/>
             <a:t>4.1 Program Code Setup</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7192720" y="1396974"/>
-        <a:ext cx="982699" cy="491349"/>
+        <a:off x="7089023" y="1488741"/>
+        <a:ext cx="1048124" cy="524062"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{1B802D14-5186-F341-8C8F-821EE6BF0C67}">
@@ -7873,8 +7873,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8381787" y="1396974"/>
-          <a:ext cx="982699" cy="491349"/>
+          <a:off x="8357253" y="1488741"/>
+          <a:ext cx="1048124" cy="524062"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7916,12 +7916,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7934,14 +7934,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100" kern="1200"/>
+            <a:rPr lang="en-GB" sz="1200" kern="1200"/>
             <a:t>4.2 Features Implementation</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8381787" y="1396974"/>
-        <a:ext cx="982699" cy="491349"/>
+        <a:off x="8357253" y="1488741"/>
+        <a:ext cx="1048124" cy="524062"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{BC98433C-F205-5C4D-A4AC-82C85B329529}">
@@ -7951,8 +7951,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8627462" y="2094691"/>
-          <a:ext cx="982699" cy="491349"/>
+          <a:off x="8619284" y="2232909"/>
+          <a:ext cx="1048124" cy="524062"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7994,12 +7994,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -8012,14 +8012,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100" kern="1200"/>
+            <a:rPr lang="en-GB" sz="1200" kern="1200"/>
             <a:t>4.2.1 Food Search</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8627462" y="2094691"/>
-        <a:ext cx="982699" cy="491349"/>
+        <a:off x="8619284" y="2232909"/>
+        <a:ext cx="1048124" cy="524062"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{9E7EC227-8350-1644-93D8-341668510DC4}">
@@ -8029,8 +8029,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8627462" y="2792408"/>
-          <a:ext cx="982699" cy="491349"/>
+          <a:off x="8619284" y="2977078"/>
+          <a:ext cx="1048124" cy="524062"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8072,12 +8072,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -8090,14 +8090,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100" kern="1200"/>
+            <a:rPr lang="en-GB" sz="1200" kern="1200"/>
             <a:t>4.2.2 Nutrition Breakdown</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8627462" y="2792408"/>
-        <a:ext cx="982699" cy="491349"/>
+        <a:off x="8619284" y="2977078"/>
+        <a:ext cx="1048124" cy="524062"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{2F95A6AA-8260-D24E-88A5-0F83B38D5FD2}">
@@ -8107,8 +8107,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8627462" y="3490125"/>
-          <a:ext cx="982699" cy="491349"/>
+          <a:off x="8619284" y="3721246"/>
+          <a:ext cx="1048124" cy="524062"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8150,12 +8150,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -8168,14 +8168,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100" kern="1200"/>
+            <a:rPr lang="en-GB" sz="1200" kern="1200"/>
             <a:t>4.2.3 Nutrition Range Filter</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8627462" y="3490125"/>
-        <a:ext cx="982699" cy="491349"/>
+        <a:off x="8619284" y="3721246"/>
+        <a:ext cx="1048124" cy="524062"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{9AA3D661-20B8-E144-93A5-60256B683964}">
@@ -8185,8 +8185,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8627462" y="4187842"/>
-          <a:ext cx="982699" cy="491349"/>
+          <a:off x="8619284" y="4465414"/>
+          <a:ext cx="1048124" cy="524062"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8228,12 +8228,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -8246,14 +8246,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100" kern="1200"/>
+            <a:rPr lang="en-GB" sz="1200" kern="1200"/>
             <a:t>4.2.4 Nutrition Level Filter</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8627462" y="4187842"/>
-        <a:ext cx="982699" cy="491349"/>
+        <a:off x="8619284" y="4465414"/>
+        <a:ext cx="1048124" cy="524062"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{8D51A967-8FD0-BB4E-BE7C-B54F55D9E8E0}">
@@ -8263,8 +8263,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8627462" y="4885558"/>
-          <a:ext cx="982699" cy="491349"/>
+          <a:off x="8619284" y="5209582"/>
+          <a:ext cx="1048124" cy="524062"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8306,12 +8306,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -8324,14 +8324,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100" kern="1200"/>
-            <a:t>4.2.5 Additional Features</a:t>
+            <a:rPr lang="en-GB" sz="1200" kern="1200"/>
+            <a:t>4.2.5 Weight  Calculation Feature </a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8627462" y="4885558"/>
-        <a:ext cx="982699" cy="491349"/>
+        <a:off x="8619284" y="5209582"/>
+        <a:ext cx="1048124" cy="524062"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{11E61856-20FF-6F45-9D82-DD5B217974E7}">
@@ -8341,8 +8341,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9570854" y="1396974"/>
-          <a:ext cx="982699" cy="491349"/>
+          <a:off x="9625483" y="1488741"/>
+          <a:ext cx="1048124" cy="524062"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8384,12 +8384,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -8402,14 +8402,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100" kern="1200"/>
+            <a:rPr lang="en-GB" sz="1200" kern="1200"/>
             <a:t>4.3 GUI Implementation</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9570854" y="1396974"/>
-        <a:ext cx="982699" cy="491349"/>
+        <a:off x="9625483" y="1488741"/>
+        <a:ext cx="1048124" cy="524062"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{0E8DCE9F-8409-EA47-AD90-A5910E851155}">
@@ -8419,8 +8419,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10759920" y="1396974"/>
-          <a:ext cx="982699" cy="491349"/>
+          <a:off x="10893713" y="1488741"/>
+          <a:ext cx="1048124" cy="524062"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8462,12 +8462,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -8480,14 +8480,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100" kern="1200"/>
+            <a:rPr lang="en-GB" sz="1200" kern="1200"/>
             <a:t>4.4 API Implementation</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="10759920" y="1396974"/>
-        <a:ext cx="982699" cy="491349"/>
+        <a:off x="10893713" y="1488741"/>
+        <a:ext cx="1048124" cy="524062"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{901C37FF-5D25-584E-9E62-549FB9BA6CE9}">
@@ -8497,8 +8497,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11703312" y="699258"/>
-          <a:ext cx="982699" cy="491349"/>
+          <a:off x="11899912" y="744573"/>
+          <a:ext cx="1048124" cy="524062"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8540,12 +8540,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -8558,14 +8558,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100" kern="1200"/>
+            <a:rPr lang="en-GB" sz="1200" kern="1200"/>
             <a:t>5.0 Testing</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="11703312" y="699258"/>
-        <a:ext cx="982699" cy="491349"/>
+        <a:off x="11899912" y="744573"/>
+        <a:ext cx="1048124" cy="524062"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{818458C2-E63E-854D-ACD0-252F7D5B63AD}">
@@ -8575,8 +8575,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11948987" y="1396974"/>
-          <a:ext cx="982699" cy="491349"/>
+          <a:off x="12161943" y="1488741"/>
+          <a:ext cx="1048124" cy="524062"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8618,12 +8618,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -8636,14 +8636,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100" kern="1200"/>
+            <a:rPr lang="en-GB" sz="1200" kern="1200"/>
             <a:t>5.1 Unit and Functional Testing</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="11948987" y="1396974"/>
-        <a:ext cx="982699" cy="491349"/>
+        <a:off x="12161943" y="1488741"/>
+        <a:ext cx="1048124" cy="524062"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{29D58633-842D-AC47-BD78-BFC1CEB16675}">
@@ -8653,8 +8653,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11948987" y="2094691"/>
-          <a:ext cx="982699" cy="491349"/>
+          <a:off x="12161943" y="2232909"/>
+          <a:ext cx="1048124" cy="524062"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8696,12 +8696,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -8714,14 +8714,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100" kern="1200"/>
+            <a:rPr lang="en-GB" sz="1200" kern="1200"/>
             <a:t>5.2 Integrationg Testing</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="11948987" y="2094691"/>
-        <a:ext cx="982699" cy="491349"/>
+        <a:off x="12161943" y="2232909"/>
+        <a:ext cx="1048124" cy="524062"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{566FE928-C794-0248-8371-89CD78A732D7}">
@@ -8731,8 +8731,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11948987" y="2792408"/>
-          <a:ext cx="982699" cy="491349"/>
+          <a:off x="12161943" y="2977078"/>
+          <a:ext cx="1048124" cy="524062"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8774,12 +8774,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -8792,14 +8792,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100" kern="1200"/>
+            <a:rPr lang="en-GB" sz="1200" kern="1200"/>
             <a:t>5.3 User Experience and Use Case Testing</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="11948987" y="2792408"/>
-        <a:ext cx="982699" cy="491349"/>
+        <a:off x="12161943" y="2977078"/>
+        <a:ext cx="1048124" cy="524062"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C4D73C13-344F-6448-A712-32D889E43B02}">
@@ -8809,8 +8809,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11948987" y="3490125"/>
-          <a:ext cx="982699" cy="491349"/>
+          <a:off x="12161943" y="3721246"/>
+          <a:ext cx="1048124" cy="524062"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8852,12 +8852,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -8870,14 +8870,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100" kern="1200"/>
+            <a:rPr lang="en-GB" sz="1200" kern="1200"/>
             <a:t>5.4 Bug Hunting</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="11948987" y="3490125"/>
-        <a:ext cx="982699" cy="491349"/>
+        <a:off x="12161943" y="3721246"/>
+        <a:ext cx="1048124" cy="524062"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{34A5A6B6-9F2A-674C-8D6B-774B2EDEC98B}">
@@ -8887,8 +8887,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11948987" y="4187842"/>
-          <a:ext cx="982699" cy="491349"/>
+          <a:off x="12161943" y="4465414"/>
+          <a:ext cx="1048124" cy="524062"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8930,12 +8930,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -8948,14 +8948,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100" kern="1200"/>
+            <a:rPr lang="en-GB" sz="1200" kern="1200"/>
             <a:t>5.5 Acceptance Testing</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="11948987" y="4187842"/>
-        <a:ext cx="982699" cy="491349"/>
+        <a:off x="12161943" y="4465414"/>
+        <a:ext cx="1048124" cy="524062"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{D72E14DC-2572-4645-9CA9-9B22181C20D6}">
@@ -8965,8 +8965,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11948987" y="4885558"/>
-          <a:ext cx="982699" cy="491349"/>
+          <a:off x="12161943" y="5209582"/>
+          <a:ext cx="1048124" cy="524062"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9008,12 +9008,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -9026,14 +9026,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100" kern="1200"/>
+            <a:rPr lang="en-GB" sz="1200" kern="1200"/>
             <a:t>5.6 Performance and Optimization</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="11948987" y="4885558"/>
-        <a:ext cx="982699" cy="491349"/>
+        <a:off x="12161943" y="5209582"/>
+        <a:ext cx="1048124" cy="524062"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{2B6240E6-C534-7945-AD9F-579170B078A4}">
@@ -9043,8 +9043,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="12892379" y="699258"/>
-          <a:ext cx="982699" cy="491349"/>
+          <a:off x="13168142" y="744573"/>
+          <a:ext cx="1048124" cy="524062"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9086,12 +9086,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -9104,14 +9104,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100" kern="1200"/>
+            <a:rPr lang="en-GB" sz="1200" kern="1200"/>
             <a:t>6.0 Closing</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="12892379" y="699258"/>
-        <a:ext cx="982699" cy="491349"/>
+        <a:off x="13168142" y="744573"/>
+        <a:ext cx="1048124" cy="524062"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{F0E70B1B-A481-074C-BE77-13C26063B911}">
@@ -9121,8 +9121,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="13138054" y="1396974"/>
-          <a:ext cx="982699" cy="491349"/>
+          <a:off x="13430173" y="1488741"/>
+          <a:ext cx="1048124" cy="524062"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9164,12 +9164,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -9182,14 +9182,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100" kern="1200"/>
+            <a:rPr lang="en-GB" sz="1200" kern="1200"/>
             <a:t>6.1 Project Documentation</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="13138054" y="1396974"/>
-        <a:ext cx="982699" cy="491349"/>
+        <a:off x="13430173" y="1488741"/>
+        <a:ext cx="1048124" cy="524062"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{84C0DA8A-5EBC-7440-8A86-040B9B3971CA}">
@@ -9199,8 +9199,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="13138054" y="2094691"/>
-          <a:ext cx="982699" cy="491349"/>
+          <a:off x="13430173" y="2232909"/>
+          <a:ext cx="1048124" cy="524062"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9242,12 +9242,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -9260,14 +9260,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100" kern="1200"/>
+            <a:rPr lang="en-GB" sz="1200" kern="1200"/>
             <a:t>6.2 Time Sheet Logging</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="13138054" y="2094691"/>
-        <a:ext cx="982699" cy="491349"/>
+        <a:off x="13430173" y="2232909"/>
+        <a:ext cx="1048124" cy="524062"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{B6D193FA-53D5-C646-93DB-FDAD05627403}">
@@ -9277,8 +9277,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="13138054" y="2792408"/>
-          <a:ext cx="982699" cy="491349"/>
+          <a:off x="13430173" y="2977078"/>
+          <a:ext cx="1048124" cy="524062"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9320,12 +9320,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -9338,14 +9338,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100" kern="1200"/>
+            <a:rPr lang="en-GB" sz="1200" kern="1200"/>
             <a:t>6.3 Submitting Final Project</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="13138054" y="2792408"/>
-        <a:ext cx="982699" cy="491349"/>
+        <a:off x="13430173" y="2977078"/>
+        <a:ext cx="1048124" cy="524062"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C10BE19E-D779-3745-AA2C-E52EDBA53007}">
@@ -9355,8 +9355,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="13138054" y="3490125"/>
-          <a:ext cx="982699" cy="491349"/>
+          <a:off x="13430173" y="3721246"/>
+          <a:ext cx="1048124" cy="524062"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9398,12 +9398,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6985" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -9416,14 +9416,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100" kern="1200"/>
+            <a:rPr lang="en-GB" sz="1200" kern="1200"/>
             <a:t>6.4 Performance and GitLog Review </a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="13138054" y="3490125"/>
-        <a:ext cx="982699" cy="491349"/>
+        <a:off x="13430173" y="3721246"/>
+        <a:ext cx="1048124" cy="524062"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -11971,7 +11971,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
